--- a/Project/HLR.xlsx
+++ b/Project/HLR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="394">
   <si>
     <t>HLR</t>
   </si>
@@ -1066,6 +1066,12 @@
     <t>FOLLOW US</t>
   </si>
   <si>
+    <t>FOLLOW US Button</t>
+  </si>
+  <si>
+    <t>While click on it,it work not properly.</t>
+  </si>
+  <si>
     <t>f Icon (Facebook )</t>
   </si>
   <si>
@@ -1096,9 +1102,6 @@
     <t>Categories Button</t>
   </si>
   <si>
-    <t>While click on it,it work not properly.</t>
-  </si>
-  <si>
     <t>While click on it,it open women's page.</t>
   </si>
   <si>
@@ -1180,13 +1183,16 @@
     <t>Same as Functionality 500.</t>
   </si>
   <si>
-    <t>EMAIL</t>
+    <t>Store Information</t>
+  </si>
+  <si>
+    <t>Store Information Button</t>
+  </si>
+  <si>
+    <t>While click on it,it works properly.</t>
   </si>
   <si>
     <t>support@seleniumframework.com(link)</t>
-  </si>
-  <si>
-    <t>While click on it,it works properly.</t>
   </si>
   <si>
     <t>Ecommerce software by PrestaShop™</t>
@@ -1197,10 +1203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1318,6 +1324,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1333,17 +1346,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1359,14 +1372,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,13 +1416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1436,6 +1434,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1506,7 +1512,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,13 +1548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,13 +1572,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,31 +1596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,7 +1614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,25 +1638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,19 +1656,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,13 +1680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,17 +2041,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2091,6 +2086,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2112,31 +2118,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2148,94 +2154,94 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2695,10 +2701,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z875"/>
+  <dimension ref="A1:Z877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="C265" sqref="C265"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362:B362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4444444444444" defaultRowHeight="15" customHeight="1"/>
@@ -14415,13 +14421,13 @@
       <c r="Z361" s="9"/>
     </row>
     <row r="362" ht="21" customHeight="1" spans="1:26">
-      <c r="A362" s="27">
+      <c r="A362" s="20">
         <v>3700</v>
       </c>
-      <c r="B362" s="28" t="s">
+      <c r="B362" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="C362" s="29" t="s">
+      <c r="C362" s="22" t="s">
         <v>351</v>
       </c>
       <c r="D362" s="9"/>
@@ -14484,7 +14490,7 @@
     </row>
     <row r="364" ht="21" customHeight="1" spans="1:26">
       <c r="A364" s="27">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="B364" s="28" t="s">
         <v>354</v>
@@ -14518,7 +14524,7 @@
     </row>
     <row r="365" ht="21" customHeight="1" spans="1:26">
       <c r="A365" s="27">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="B365" s="28" t="s">
         <v>356</v>
@@ -14551,9 +14557,15 @@
       <c r="Z365" s="9"/>
     </row>
     <row r="366" ht="21" customHeight="1" spans="1:26">
-      <c r="A366" s="27"/>
-      <c r="B366" s="28"/>
-      <c r="C366" s="29"/>
+      <c r="A366" s="27">
+        <v>3703</v>
+      </c>
+      <c r="B366" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C366" s="29" t="s">
+        <v>359</v>
+      </c>
       <c r="D366" s="9"/>
       <c r="E366" s="9"/>
       <c r="F366" s="9"/>
@@ -14579,11 +14591,9 @@
       <c r="Z366" s="9"/>
     </row>
     <row r="367" ht="21" customHeight="1" spans="1:26">
-      <c r="A367" s="24"/>
-      <c r="B367" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="C367" s="30"/>
+      <c r="A367" s="27"/>
+      <c r="B367" s="28"/>
+      <c r="C367" s="29"/>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
       <c r="F367" s="9"/>
@@ -14608,78 +14618,80 @@
       <c r="Y367" s="9"/>
       <c r="Z367" s="9"/>
     </row>
-    <row r="368" s="1" customFormat="1" ht="21" customHeight="1" spans="1:26">
-      <c r="A368" s="20">
+    <row r="368" ht="21" customHeight="1" spans="1:26">
+      <c r="A368" s="24"/>
+      <c r="B368" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C368" s="30"/>
+      <c r="D368" s="9"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="9"/>
+      <c r="G368" s="9"/>
+      <c r="H368" s="9"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="9"/>
+      <c r="K368" s="9"/>
+      <c r="L368" s="9"/>
+      <c r="M368" s="9"/>
+      <c r="N368" s="9"/>
+      <c r="O368" s="9"/>
+      <c r="P368" s="9"/>
+      <c r="Q368" s="9"/>
+      <c r="R368" s="9"/>
+      <c r="S368" s="9"/>
+      <c r="T368" s="9"/>
+      <c r="U368" s="9"/>
+      <c r="V368" s="9"/>
+      <c r="W368" s="9"/>
+      <c r="X368" s="9"/>
+      <c r="Y368" s="9"/>
+      <c r="Z368" s="9"/>
+    </row>
+    <row r="369" s="1" customFormat="1" ht="21" customHeight="1" spans="1:26">
+      <c r="A369" s="20">
         <v>3800</v>
       </c>
-      <c r="B368" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="C368" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="D368" s="23"/>
-      <c r="E368" s="23"/>
-      <c r="F368" s="23"/>
-      <c r="G368" s="23"/>
-      <c r="H368" s="23"/>
-      <c r="I368" s="23"/>
-      <c r="J368" s="23"/>
-      <c r="K368" s="23"/>
-      <c r="L368" s="23"/>
-      <c r="M368" s="23"/>
-      <c r="N368" s="23"/>
-      <c r="O368" s="23"/>
-      <c r="P368" s="23"/>
-      <c r="Q368" s="23"/>
-      <c r="R368" s="23"/>
-      <c r="S368" s="23"/>
-      <c r="T368" s="23"/>
-      <c r="U368" s="23"/>
-      <c r="V368" s="23"/>
-      <c r="W368" s="23"/>
-      <c r="X368" s="23"/>
-      <c r="Y368" s="23"/>
-      <c r="Z368" s="23"/>
-    </row>
-    <row r="369" ht="21" customHeight="1" spans="1:26">
-      <c r="A369" s="27">
+      <c r="B369" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C369" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D369" s="23"/>
+      <c r="E369" s="23"/>
+      <c r="F369" s="23"/>
+      <c r="G369" s="23"/>
+      <c r="H369" s="23"/>
+      <c r="I369" s="23"/>
+      <c r="J369" s="23"/>
+      <c r="K369" s="23"/>
+      <c r="L369" s="23"/>
+      <c r="M369" s="23"/>
+      <c r="N369" s="23"/>
+      <c r="O369" s="23"/>
+      <c r="P369" s="23"/>
+      <c r="Q369" s="23"/>
+      <c r="R369" s="23"/>
+      <c r="S369" s="23"/>
+      <c r="T369" s="23"/>
+      <c r="U369" s="23"/>
+      <c r="V369" s="23"/>
+      <c r="W369" s="23"/>
+      <c r="X369" s="23"/>
+      <c r="Y369" s="23"/>
+      <c r="Z369" s="23"/>
+    </row>
+    <row r="370" ht="21" customHeight="1" spans="1:26">
+      <c r="A370" s="27">
         <v>3801</v>
       </c>
-      <c r="B369" s="28" t="s">
+      <c r="B370" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C369" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="D369" s="9"/>
-      <c r="E369" s="9"/>
-      <c r="F369" s="9"/>
-      <c r="G369" s="9"/>
-      <c r="H369" s="9"/>
-      <c r="I369" s="9"/>
-      <c r="J369" s="9"/>
-      <c r="K369" s="9"/>
-      <c r="L369" s="9"/>
-      <c r="M369" s="9"/>
-      <c r="N369" s="9"/>
-      <c r="O369" s="9"/>
-      <c r="P369" s="9"/>
-      <c r="Q369" s="9"/>
-      <c r="R369" s="9"/>
-      <c r="S369" s="9"/>
-      <c r="T369" s="9"/>
-      <c r="U369" s="9"/>
-      <c r="V369" s="9"/>
-      <c r="W369" s="9"/>
-      <c r="X369" s="9"/>
-      <c r="Y369" s="9"/>
-      <c r="Z369" s="9"/>
-    </row>
-    <row r="370" ht="21" customHeight="1" spans="1:26">
-      <c r="A370" s="27"/>
-      <c r="B370" s="28"/>
-      <c r="C370" s="29"/>
+      <c r="C370" s="29" t="s">
+        <v>362</v>
+      </c>
       <c r="D370" s="9"/>
       <c r="E370" s="9"/>
       <c r="F370" s="9"/>
@@ -14705,11 +14717,9 @@
       <c r="Z370" s="9"/>
     </row>
     <row r="371" ht="21" customHeight="1" spans="1:26">
-      <c r="A371" s="24"/>
-      <c r="B371" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="C371" s="30"/>
+      <c r="A371" s="27"/>
+      <c r="B371" s="28"/>
+      <c r="C371" s="29"/>
       <c r="D371" s="9"/>
       <c r="E371" s="9"/>
       <c r="F371" s="9"/>
@@ -14735,15 +14745,11 @@
       <c r="Z371" s="9"/>
     </row>
     <row r="372" ht="21" customHeight="1" spans="1:26">
-      <c r="A372" s="20">
-        <v>3900</v>
-      </c>
-      <c r="B372" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="C372" s="57" t="s">
-        <v>360</v>
-      </c>
+      <c r="A372" s="24"/>
+      <c r="B372" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C372" s="30"/>
       <c r="D372" s="9"/>
       <c r="E372" s="9"/>
       <c r="F372" s="9"/>
@@ -14769,14 +14775,14 @@
       <c r="Z372" s="9"/>
     </row>
     <row r="373" ht="21" customHeight="1" spans="1:26">
-      <c r="A373" s="27">
-        <v>3901</v>
-      </c>
-      <c r="B373" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="C373" s="29" t="s">
-        <v>217</v>
+      <c r="A373" s="20">
+        <v>3900</v>
+      </c>
+      <c r="B373" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C373" s="57" t="s">
+        <v>351</v>
       </c>
       <c r="D373" s="9"/>
       <c r="E373" s="9"/>
@@ -14804,13 +14810,13 @@
     </row>
     <row r="374" ht="21" customHeight="1" spans="1:26">
       <c r="A374" s="27">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="B374" s="28" t="s">
         <v>364</v>
       </c>
       <c r="C374" s="29" t="s">
-        <v>365</v>
+        <v>217</v>
       </c>
       <c r="D374" s="9"/>
       <c r="E374" s="9"/>
@@ -14838,13 +14844,13 @@
     </row>
     <row r="375" ht="21" customHeight="1" spans="1:26">
       <c r="A375" s="27">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="B375" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C375" s="29" t="s">
         <v>366</v>
-      </c>
-      <c r="C375" s="29" t="s">
-        <v>367</v>
       </c>
       <c r="D375" s="9"/>
       <c r="E375" s="9"/>
@@ -14872,13 +14878,13 @@
     </row>
     <row r="376" ht="21" customHeight="1" spans="1:26">
       <c r="A376" s="27">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="B376" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C376" s="29" t="s">
         <v>368</v>
-      </c>
-      <c r="C376" s="29" t="s">
-        <v>369</v>
       </c>
       <c r="D376" s="9"/>
       <c r="E376" s="9"/>
@@ -14906,13 +14912,13 @@
     </row>
     <row r="377" ht="21" customHeight="1" spans="1:26">
       <c r="A377" s="27">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="B377" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C377" s="29" t="s">
         <v>370</v>
-      </c>
-      <c r="C377" s="29" t="s">
-        <v>371</v>
       </c>
       <c r="D377" s="9"/>
       <c r="E377" s="9"/>
@@ -14940,13 +14946,13 @@
     </row>
     <row r="378" ht="21" customHeight="1" spans="1:26">
       <c r="A378" s="27">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="B378" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="C378" s="29" t="s">
         <v>372</v>
-      </c>
-      <c r="C378" s="29" t="s">
-        <v>373</v>
       </c>
       <c r="D378" s="9"/>
       <c r="E378" s="9"/>
@@ -14974,13 +14980,13 @@
     </row>
     <row r="379" ht="21" customHeight="1" spans="1:26">
       <c r="A379" s="27">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="B379" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C379" s="29" t="s">
         <v>374</v>
-      </c>
-      <c r="C379" s="29" t="s">
-        <v>375</v>
       </c>
       <c r="D379" s="9"/>
       <c r="E379" s="9"/>
@@ -15008,13 +15014,13 @@
     </row>
     <row r="380" ht="21" customHeight="1" spans="1:26">
       <c r="A380" s="27">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="B380" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C380" s="29" t="s">
         <v>376</v>
-      </c>
-      <c r="C380" s="29" t="s">
-        <v>377</v>
       </c>
       <c r="D380" s="9"/>
       <c r="E380" s="9"/>
@@ -15041,9 +15047,15 @@
       <c r="Z380" s="9"/>
     </row>
     <row r="381" ht="21" customHeight="1" spans="1:26">
-      <c r="A381" s="27"/>
-      <c r="B381" s="28"/>
-      <c r="C381" s="29"/>
+      <c r="A381" s="27">
+        <v>3908</v>
+      </c>
+      <c r="B381" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C381" s="29" t="s">
+        <v>378</v>
+      </c>
       <c r="D381" s="9"/>
       <c r="E381" s="9"/>
       <c r="F381" s="9"/>
@@ -15069,11 +15081,9 @@
       <c r="Z381" s="9"/>
     </row>
     <row r="382" ht="21" customHeight="1" spans="1:26">
-      <c r="A382" s="24"/>
-      <c r="B382" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C382" s="30"/>
+      <c r="A382" s="27"/>
+      <c r="B382" s="28"/>
+      <c r="C382" s="29"/>
       <c r="D382" s="9"/>
       <c r="E382" s="9"/>
       <c r="F382" s="9"/>
@@ -15099,15 +15109,11 @@
       <c r="Z382" s="9"/>
     </row>
     <row r="383" ht="21" customHeight="1" spans="1:26">
-      <c r="A383" s="27">
-        <v>4000</v>
-      </c>
-      <c r="B383" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C383" s="33" t="s">
+      <c r="A383" s="24"/>
+      <c r="B383" s="25" t="s">
         <v>379</v>
       </c>
+      <c r="C383" s="30"/>
       <c r="D383" s="9"/>
       <c r="E383" s="9"/>
       <c r="F383" s="9"/>
@@ -15134,13 +15140,13 @@
     </row>
     <row r="384" ht="21" customHeight="1" spans="1:26">
       <c r="A384" s="27">
-        <v>4001</v>
-      </c>
-      <c r="B384" s="28" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B384" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C384" s="33" t="s">
         <v>380</v>
-      </c>
-      <c r="C384" s="29" t="s">
-        <v>166</v>
       </c>
       <c r="D384" s="9"/>
       <c r="E384" s="9"/>
@@ -15168,13 +15174,13 @@
     </row>
     <row r="385" ht="21" customHeight="1" spans="1:26">
       <c r="A385" s="27">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B385" s="28" t="s">
         <v>381</v>
       </c>
       <c r="C385" s="29" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
       <c r="D385" s="9"/>
       <c r="E385" s="9"/>
@@ -15202,10 +15208,10 @@
     </row>
     <row r="386" ht="21" customHeight="1" spans="1:26">
       <c r="A386" s="27">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B386" s="28" t="s">
-        <v>67</v>
+        <v>382</v>
       </c>
       <c r="C386" s="29" t="s">
         <v>383</v>
@@ -15236,13 +15242,13 @@
     </row>
     <row r="387" ht="21" customHeight="1" spans="1:26">
       <c r="A387" s="27">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B387" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C387" s="29" t="s">
         <v>384</v>
-      </c>
-      <c r="C387" s="29" t="s">
-        <v>385</v>
       </c>
       <c r="D387" s="9"/>
       <c r="E387" s="9"/>
@@ -15270,13 +15276,13 @@
     </row>
     <row r="388" ht="21" customHeight="1" spans="1:26">
       <c r="A388" s="27">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B388" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C388" s="29" t="s">
         <v>386</v>
-      </c>
-      <c r="C388" s="29" t="s">
-        <v>387</v>
       </c>
       <c r="D388" s="9"/>
       <c r="E388" s="9"/>
@@ -15303,9 +15309,15 @@
       <c r="Z388" s="9"/>
     </row>
     <row r="389" ht="21" customHeight="1" spans="1:26">
-      <c r="A389" s="27"/>
-      <c r="B389" s="28"/>
-      <c r="C389" s="29"/>
+      <c r="A389" s="27">
+        <v>4005</v>
+      </c>
+      <c r="B389" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="C389" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="D389" s="9"/>
       <c r="E389" s="9"/>
       <c r="F389" s="9"/>
@@ -15331,11 +15343,9 @@
       <c r="Z389" s="9"/>
     </row>
     <row r="390" ht="21" customHeight="1" spans="1:26">
-      <c r="A390" s="24"/>
-      <c r="B390" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="C390" s="30"/>
+      <c r="A390" s="27"/>
+      <c r="B390" s="28"/>
+      <c r="C390" s="29"/>
       <c r="D390" s="9"/>
       <c r="E390" s="9"/>
       <c r="F390" s="9"/>
@@ -15361,15 +15371,11 @@
       <c r="Z390" s="9"/>
     </row>
     <row r="391" ht="21" customHeight="1" spans="1:26">
-      <c r="A391" s="27">
-        <v>4100</v>
-      </c>
-      <c r="B391" s="28" t="s">
+      <c r="A391" s="24"/>
+      <c r="B391" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C391" s="29" t="s">
-        <v>390</v>
-      </c>
+      <c r="C391" s="30"/>
       <c r="D391" s="9"/>
       <c r="E391" s="9"/>
       <c r="F391" s="9"/>
@@ -15395,9 +15401,15 @@
       <c r="Z391" s="9"/>
     </row>
     <row r="392" ht="21" customHeight="1" spans="1:26">
-      <c r="A392" s="27"/>
-      <c r="B392" s="28"/>
-      <c r="C392" s="29"/>
+      <c r="A392" s="20">
+        <v>4100</v>
+      </c>
+      <c r="B392" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C392" s="22" t="s">
+        <v>391</v>
+      </c>
       <c r="D392" s="9"/>
       <c r="E392" s="9"/>
       <c r="F392" s="9"/>
@@ -15423,11 +15435,15 @@
       <c r="Z392" s="9"/>
     </row>
     <row r="393" ht="21" customHeight="1" spans="1:26">
-      <c r="A393" s="75"/>
-      <c r="B393" s="76" t="s">
+      <c r="A393" s="27">
+        <v>4101</v>
+      </c>
+      <c r="B393" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="C393" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="C393" s="77"/>
       <c r="D393" s="9"/>
       <c r="E393" s="9"/>
       <c r="F393" s="9"/>
@@ -15452,44 +15468,40 @@
       <c r="Y393" s="9"/>
       <c r="Z393" s="9"/>
     </row>
-    <row r="394" s="1" customFormat="1" ht="21" customHeight="1" spans="1:26">
-      <c r="A394" s="35">
-        <v>4200</v>
-      </c>
-      <c r="B394" s="78" t="s">
-        <v>391</v>
-      </c>
-      <c r="C394" s="67" t="s">
-        <v>309</v>
-      </c>
-      <c r="D394" s="23"/>
-      <c r="E394" s="23"/>
-      <c r="F394" s="23"/>
-      <c r="G394" s="23"/>
-      <c r="H394" s="23"/>
-      <c r="I394" s="23"/>
-      <c r="J394" s="23"/>
-      <c r="K394" s="23"/>
-      <c r="L394" s="23"/>
-      <c r="M394" s="23"/>
-      <c r="N394" s="23"/>
-      <c r="O394" s="23"/>
-      <c r="P394" s="23"/>
-      <c r="Q394" s="23"/>
-      <c r="R394" s="23"/>
-      <c r="S394" s="23"/>
-      <c r="T394" s="23"/>
-      <c r="U394" s="23"/>
-      <c r="V394" s="23"/>
-      <c r="W394" s="23"/>
-      <c r="X394" s="23"/>
-      <c r="Y394" s="23"/>
-      <c r="Z394" s="23"/>
+    <row r="394" ht="21" customHeight="1" spans="1:26">
+      <c r="A394" s="27"/>
+      <c r="B394" s="28"/>
+      <c r="C394" s="29"/>
+      <c r="D394" s="9"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="9"/>
+      <c r="G394" s="9"/>
+      <c r="H394" s="9"/>
+      <c r="I394" s="9"/>
+      <c r="J394" s="9"/>
+      <c r="K394" s="9"/>
+      <c r="L394" s="9"/>
+      <c r="M394" s="9"/>
+      <c r="N394" s="9"/>
+      <c r="O394" s="9"/>
+      <c r="P394" s="9"/>
+      <c r="Q394" s="9"/>
+      <c r="R394" s="9"/>
+      <c r="S394" s="9"/>
+      <c r="T394" s="9"/>
+      <c r="U394" s="9"/>
+      <c r="V394" s="9"/>
+      <c r="W394" s="9"/>
+      <c r="X394" s="9"/>
+      <c r="Y394" s="9"/>
+      <c r="Z394" s="9"/>
     </row>
     <row r="395" ht="21" customHeight="1" spans="1:26">
-      <c r="A395" s="79"/>
-      <c r="B395" s="80"/>
-      <c r="C395" s="81"/>
+      <c r="A395" s="75"/>
+      <c r="B395" s="76" t="s">
+        <v>393</v>
+      </c>
+      <c r="C395" s="77"/>
       <c r="D395" s="9"/>
       <c r="E395" s="9"/>
       <c r="F395" s="9"/>
@@ -15514,38 +15526,44 @@
       <c r="Y395" s="9"/>
       <c r="Z395" s="9"/>
     </row>
-    <row r="396" ht="21" customHeight="1" spans="1:26">
-      <c r="A396" s="82"/>
-      <c r="B396" s="83"/>
-      <c r="C396" s="9"/>
-      <c r="D396" s="9"/>
-      <c r="E396" s="9"/>
-      <c r="F396" s="9"/>
-      <c r="G396" s="9"/>
-      <c r="H396" s="9"/>
-      <c r="I396" s="9"/>
-      <c r="J396" s="9"/>
-      <c r="K396" s="9"/>
-      <c r="L396" s="9"/>
-      <c r="M396" s="9"/>
-      <c r="N396" s="9"/>
-      <c r="O396" s="9"/>
-      <c r="P396" s="9"/>
-      <c r="Q396" s="9"/>
-      <c r="R396" s="9"/>
-      <c r="S396" s="9"/>
-      <c r="T396" s="9"/>
-      <c r="U396" s="9"/>
-      <c r="V396" s="9"/>
-      <c r="W396" s="9"/>
-      <c r="X396" s="9"/>
-      <c r="Y396" s="9"/>
-      <c r="Z396" s="9"/>
+    <row r="396" s="1" customFormat="1" ht="21" customHeight="1" spans="1:26">
+      <c r="A396" s="35">
+        <v>4200</v>
+      </c>
+      <c r="B396" s="78" t="s">
+        <v>393</v>
+      </c>
+      <c r="C396" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D396" s="23"/>
+      <c r="E396" s="23"/>
+      <c r="F396" s="23"/>
+      <c r="G396" s="23"/>
+      <c r="H396" s="23"/>
+      <c r="I396" s="23"/>
+      <c r="J396" s="23"/>
+      <c r="K396" s="23"/>
+      <c r="L396" s="23"/>
+      <c r="M396" s="23"/>
+      <c r="N396" s="23"/>
+      <c r="O396" s="23"/>
+      <c r="P396" s="23"/>
+      <c r="Q396" s="23"/>
+      <c r="R396" s="23"/>
+      <c r="S396" s="23"/>
+      <c r="T396" s="23"/>
+      <c r="U396" s="23"/>
+      <c r="V396" s="23"/>
+      <c r="W396" s="23"/>
+      <c r="X396" s="23"/>
+      <c r="Y396" s="23"/>
+      <c r="Z396" s="23"/>
     </row>
     <row r="397" ht="21" customHeight="1" spans="1:26">
-      <c r="A397" s="82"/>
-      <c r="B397" s="83"/>
-      <c r="C397" s="9"/>
+      <c r="A397" s="79"/>
+      <c r="B397" s="80"/>
+      <c r="C397" s="81"/>
       <c r="D397" s="9"/>
       <c r="E397" s="9"/>
       <c r="F397" s="9"/>
@@ -25818,15 +25836,61 @@
       <c r="Y763" s="9"/>
       <c r="Z763" s="9"/>
     </row>
-    <row r="764" customHeight="1" spans="1:3">
+    <row r="764" ht="21" customHeight="1" spans="1:26">
       <c r="A764" s="82"/>
       <c r="B764" s="83"/>
       <c r="C764" s="9"/>
-    </row>
-    <row r="765" customHeight="1" spans="1:3">
+      <c r="D764" s="9"/>
+      <c r="E764" s="9"/>
+      <c r="F764" s="9"/>
+      <c r="G764" s="9"/>
+      <c r="H764" s="9"/>
+      <c r="I764" s="9"/>
+      <c r="J764" s="9"/>
+      <c r="K764" s="9"/>
+      <c r="L764" s="9"/>
+      <c r="M764" s="9"/>
+      <c r="N764" s="9"/>
+      <c r="O764" s="9"/>
+      <c r="P764" s="9"/>
+      <c r="Q764" s="9"/>
+      <c r="R764" s="9"/>
+      <c r="S764" s="9"/>
+      <c r="T764" s="9"/>
+      <c r="U764" s="9"/>
+      <c r="V764" s="9"/>
+      <c r="W764" s="9"/>
+      <c r="X764" s="9"/>
+      <c r="Y764" s="9"/>
+      <c r="Z764" s="9"/>
+    </row>
+    <row r="765" ht="21" customHeight="1" spans="1:26">
       <c r="A765" s="82"/>
       <c r="B765" s="83"/>
       <c r="C765" s="9"/>
+      <c r="D765" s="9"/>
+      <c r="E765" s="9"/>
+      <c r="F765" s="9"/>
+      <c r="G765" s="9"/>
+      <c r="H765" s="9"/>
+      <c r="I765" s="9"/>
+      <c r="J765" s="9"/>
+      <c r="K765" s="9"/>
+      <c r="L765" s="9"/>
+      <c r="M765" s="9"/>
+      <c r="N765" s="9"/>
+      <c r="O765" s="9"/>
+      <c r="P765" s="9"/>
+      <c r="Q765" s="9"/>
+      <c r="R765" s="9"/>
+      <c r="S765" s="9"/>
+      <c r="T765" s="9"/>
+      <c r="U765" s="9"/>
+      <c r="V765" s="9"/>
+      <c r="W765" s="9"/>
+      <c r="X765" s="9"/>
+      <c r="Y765" s="9"/>
+      <c r="Z765" s="9"/>
     </row>
     <row r="766" customHeight="1" spans="1:3">
       <c r="A766" s="82"/>
@@ -26377,6 +26441,16 @@
       <c r="A875" s="82"/>
       <c r="B875" s="83"/>
       <c r="C875" s="9"/>
+    </row>
+    <row r="876" customHeight="1" spans="1:3">
+      <c r="A876" s="82"/>
+      <c r="B876" s="83"/>
+      <c r="C876" s="9"/>
+    </row>
+    <row r="877" customHeight="1" spans="1:3">
+      <c r="A877" s="82"/>
+      <c r="B877" s="83"/>
+      <c r="C877" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
